--- a/6-Day_LeetCode_CSharp_Interview_Plan.xlsx
+++ b/6-Day_LeetCode_CSharp_Interview_Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backend\Data structure and algorism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HadyW\source\repos\Dev\SECoreHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2706EAC8-B5FD-47A7-A9CA-E6F99B227104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA685E15-7A8D-4632-B78B-C1BE84811770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD423214-EEF1-4D0C-8CF7-4B76BAD88BCF}"/>
   </bookViews>
@@ -701,11 +701,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1079,7 +1078,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,18 +1156,18 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1176,30 +1175,30 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1347,10 +1346,12 @@
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{4C02BD53-EF50-4C14-AEC1-E50FC19E42C4}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{0A836E18-C244-452B-965A-17E1ED9CDF43}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{CB0177C6-59D7-4C92-92AF-D80EC1756FAE}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{99A01630-B69B-4827-B3E9-69C75C259783}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/6-Day_LeetCode_CSharp_Interview_Plan.xlsx
+++ b/6-Day_LeetCode_CSharp_Interview_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HadyW\source\repos\Dev\SECoreHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA685E15-7A8D-4632-B78B-C1BE84811770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5857B9-41A6-4FCC-A730-A47F0F445FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD423214-EEF1-4D0C-8CF7-4B76BAD88BCF}"/>
   </bookViews>
@@ -701,10 +701,11 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1078,7 +1079,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,7 +1157,7 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1170,7 +1171,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1184,7 +1185,7 @@
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1198,7 +1199,7 @@
       <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1212,7 +1213,7 @@
       <c r="C9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1348,10 +1349,11 @@
     <hyperlink ref="D6" r:id="rId2" xr:uid="{0A836E18-C244-452B-965A-17E1ED9CDF43}"/>
     <hyperlink ref="D7" r:id="rId3" xr:uid="{CB0177C6-59D7-4C92-92AF-D80EC1756FAE}"/>
     <hyperlink ref="D8" r:id="rId4" xr:uid="{99A01630-B69B-4827-B3E9-69C75C259783}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{19C51483-BDEC-4315-AD0E-A27AE3B4155F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/6-Day_LeetCode_CSharp_Interview_Plan.xlsx
+++ b/6-Day_LeetCode_CSharp_Interview_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HadyW\source\repos\Dev\SECoreHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5857B9-41A6-4FCC-A730-A47F0F445FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10AAA32-D0F0-4FDB-94F3-CE7AC889471D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD423214-EEF1-4D0C-8CF7-4B76BAD88BCF}"/>
   </bookViews>
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1204,30 +1204,30 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       <c r="C15" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1350,10 +1350,16 @@
     <hyperlink ref="D7" r:id="rId3" xr:uid="{CB0177C6-59D7-4C92-92AF-D80EC1756FAE}"/>
     <hyperlink ref="D8" r:id="rId4" xr:uid="{99A01630-B69B-4827-B3E9-69C75C259783}"/>
     <hyperlink ref="D9" r:id="rId5" xr:uid="{19C51483-BDEC-4315-AD0E-A27AE3B4155F}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{36909D56-00EC-4AB1-B59E-2A44534CC9B9}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{EB53B960-4E9E-463C-A80B-2AAE8469497C}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{2760292C-6D85-4B94-907D-34E7B0667765}"/>
+    <hyperlink ref="D13" r:id="rId9" xr:uid="{B9B07FFD-3BF8-41A7-9DED-7F479DC0C998}"/>
+    <hyperlink ref="D14" r:id="rId10" xr:uid="{913BF79F-2036-46C4-89CA-8A747E1E90A3}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{66972099-CB64-4D72-891C-2C0117BE491C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/6-Day_LeetCode_CSharp_Interview_Plan.xlsx
+++ b/6-Day_LeetCode_CSharp_Interview_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HadyW\source\repos\Dev\SECoreHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10AAA32-D0F0-4FDB-94F3-CE7AC889471D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FCE622-9BBA-4EA0-A27C-12D985035EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD423214-EEF1-4D0C-8CF7-4B76BAD88BCF}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Day</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Day 4</t>
-  </si>
-  <si>
-    <t>Sliding Window</t>
   </si>
   <si>
     <t>Best Time to Buy and Sell Stock</t>
@@ -347,7 +344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +533,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,12 +704,14 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1079,7 +1084,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1087,7 +1092,7 @@
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1232,31 +1237,31 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1264,83 +1269,83 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/6-Day_LeetCode_CSharp_Interview_Plan.xlsx
+++ b/6-Day_LeetCode_CSharp_Interview_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HadyW\source\repos\Dev\SECoreHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FCE622-9BBA-4EA0-A27C-12D985035EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C50393E-A0F9-4EF3-9F39-81FAB94902DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD423214-EEF1-4D0C-8CF7-4B76BAD88BCF}"/>
   </bookViews>
@@ -1084,14 +1084,14 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>

--- a/6-Day_LeetCode_CSharp_Interview_Plan.xlsx
+++ b/6-Day_LeetCode_CSharp_Interview_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HadyW\source\repos\Dev\SECoreHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C50393E-A0F9-4EF3-9F39-81FAB94902DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9532242-DA37-4400-83BB-EC848AA4B012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD423214-EEF1-4D0C-8CF7-4B76BAD88BCF}"/>
   </bookViews>
@@ -1083,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CEBFCE-0C47-4ABE-B4A6-CC4C00464B8D}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1265,30 +1265,30 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>44</v>
       </c>
     </row>

--- a/6-Day_LeetCode_CSharp_Interview_Plan.xlsx
+++ b/6-Day_LeetCode_CSharp_Interview_Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HadyW\source\repos\Dev\SECoreHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\AllHub\SECoreHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9532242-DA37-4400-83BB-EC848AA4B012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3AA107-ACD7-4C79-8A25-6C3D3D661C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD423214-EEF1-4D0C-8CF7-4B76BAD88BCF}"/>
   </bookViews>
@@ -704,11 +704,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="42" applyFill="1"/>
@@ -1084,7 +1083,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1162,7 +1161,7 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1176,7 +1175,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1190,7 +1189,7 @@
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1204,7 +1203,7 @@
       <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1218,7 +1217,7 @@
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1232,35 +1231,35 @@
       <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1274,7 +1273,7 @@
       <c r="C13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1288,21 +1287,21 @@
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>47</v>
       </c>
     </row>
